--- a/FOIA SAR data/JSF/JSF 1996 SAR Data Draw.xlsx
+++ b/FOIA SAR data/JSF/JSF 1996 SAR Data Draw.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2015-09 Joint Development\Research\JSF F-35\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2007-01 PROFESSIONAL SERVICES\R scripts and data\FOIA SAR data\JSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="3795"/>
   </bookViews>
   <sheets>
-    <sheet name="Cost Variance Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost Variance" sheetId="1" r:id="rId1"/>
     <sheet name="Contract Information" sheetId="2" r:id="rId2"/>
     <sheet name="Program Funding Summary" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,9 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -527,30 +524,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,15 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -591,9 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -629,6 +596,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,6 +722,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -757,6 +774,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -911,797 +945,797 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>248001</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
         <v>24800</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>-1230.4000000000001</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="C14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="13">
         <v>-1230.4000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="15" t="s">
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>-403.7</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14">
+      <c r="C18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13">
         <v>-403.7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="B20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>-1634.1</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4">
         <v>-1634.1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>-1634.1</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="C22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4">
         <v>-1634.1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>23165.9</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="C23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16">
         <v>23165.9</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>19000</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6">
         <v>19000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="B29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="B30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="B31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="B32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="B33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="B34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="B35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="B38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="B39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="B40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="B41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>-139.6</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="14">
+      <c r="C42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="13">
         <v>-139.6</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
+      <c r="B43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="B44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>-139.6</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="C45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="4">
         <v>-139.6</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>-139.6</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="C46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="4">
         <v>-139.6</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>18860.400000000001</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="C47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="16">
         <v>18860.400000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="54"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>-1230.4000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>-139.6</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>-403.7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="23">
         <v>-139.6</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="23">
         <v>-1634.1</v>
       </c>
     </row>
@@ -1739,11 +1773,11 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1760,7 +1794,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2">
@@ -1779,34 +1813,34 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1817,29 +1851,29 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="2">
@@ -1858,34 +1892,34 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1896,29 +1930,29 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="2">
@@ -1937,34 +1971,34 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="28" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1975,32 +2009,32 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
       <c r="I32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="2">
@@ -2019,34 +2053,34 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="28" t="s">
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -2055,29 +2089,29 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="2">
@@ -2096,34 +2130,34 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="28" t="s">
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="41"/>
+      <c r="F49" s="57"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2131,118 +2165,118 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="F52" s="37"/>
+      <c r="D52" s="35"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="38">
         <v>-0.4</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54" s="38">
         <v>-0.5</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="39">
         <v>-0.4</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="39">
         <v>-0.5</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
-      <c r="B60" s="28" t="s">
+      <c r="A60" s="31"/>
+      <c r="B60" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
@@ -2261,34 +2295,34 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="28" t="s">
+      <c r="B66" s="59"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D67" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="57"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -2297,76 +2331,88 @@
       <c r="D68" s="2">
         <v>54.6</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="55">
         <v>54.6</v>
       </c>
-      <c r="F68" s="48"/>
+      <c r="F68" s="55"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="31"/>
+      <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="45"/>
-      <c r="F70" s="37"/>
+      <c r="D70" s="35"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="38">
         <v>0.8</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="38">
         <v>-0.5</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="50">
+      <c r="B73" s="39">
         <v>0.8</v>
       </c>
-      <c r="C73" s="50">
+      <c r="C73" s="39">
         <v>-0.5</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="35" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E49:F49"/>
@@ -2378,18 +2424,6 @@
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2399,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -2414,31 +2448,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="28" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2462,19 +2496,19 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="40">
         <v>1070.0999999999999</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="40">
         <v>995.5</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="40">
         <v>950.7</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="40">
         <v>20149.599999999999</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="40">
         <v>23165.9</v>
       </c>
     </row>
@@ -2482,19 +2516,19 @@
       <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="52" t="s">
+      <c r="B6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2502,39 +2536,39 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="52" t="s">
+      <c r="B7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="53" t="s">
+      <c r="B8" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2542,46 +2576,46 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="40">
         <v>1070.0999999999999</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="40">
         <v>995.5</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="40">
         <v>950.7</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="40">
         <v>20149.599999999999</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="40">
         <v>23165.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2608,16 +2642,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="36">
         <v>1998</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36">
         <v>21.7</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="36">
         <v>23.9</v>
       </c>
     </row>
@@ -2633,57 +2667,57 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="31">
         <v>1994</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="50">
+      <c r="B20" s="31"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="39">
         <v>29.1</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="39">
         <v>29.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="31">
         <v>1995</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="50">
+      <c r="B21" s="31"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="39">
         <v>95.1</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="39">
         <v>98.3</v>
       </c>
     </row>
@@ -2691,10 +2725,10 @@
       <c r="A22" s="2">
         <v>1996</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="40">
         <v>75.8</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="40">
         <v>80</v>
       </c>
     </row>
@@ -2702,146 +2736,146 @@
       <c r="A23" s="2">
         <v>1997</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="46">
         <v>228.5</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="46">
         <v>246.1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="31">
         <v>1998</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="57">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="46">
         <v>408.2</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="46">
         <v>448.9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+      <c r="A25" s="34">
         <v>1999</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="57">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="46">
         <v>394.9</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="46">
         <v>443.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="34">
         <v>2000</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="57">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="46">
         <v>217.5</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="46">
         <v>249.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
+      <c r="A27" s="34">
         <v>2001</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="57">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="46">
         <v>498.4</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="46">
         <v>583.6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+      <c r="A28" s="34">
         <v>2002</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="46">
         <v>1168.5</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="46">
         <v>1398</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
+      <c r="A29" s="34">
         <v>2003</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="46">
         <v>1562.8</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="46">
         <v>1913.7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+      <c r="A30" s="34">
         <v>2004</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="46">
         <v>1556.6</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="46">
         <v>1955.6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="34">
         <v>2005</v>
       </c>
       <c r="E31">
         <v>1286.7</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="46">
         <v>1658.6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+      <c r="A32" s="34">
         <v>2006</v>
       </c>
       <c r="E32">
         <v>778</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="46">
         <v>1028.9000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+      <c r="A33" s="34">
         <v>2007</v>
       </c>
       <c r="E33">
         <v>411.9</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="46">
         <v>558.9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
+      <c r="A34" s="47">
         <v>2008</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36">
         <v>91.5</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="48">
         <v>127.4</v>
       </c>
     </row>
@@ -2852,48 +2886,48 @@
       <c r="E35">
         <v>8803.5</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="46">
         <v>10820.4</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="31">
         <v>1995</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="50">
+      <c r="B39" s="31"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="39">
         <v>81.099999999999994</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="39">
         <v>83.8</v>
       </c>
     </row>
@@ -2901,10 +2935,10 @@
       <c r="A40" s="2">
         <v>1996</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="40">
         <v>81.3</v>
       </c>
     </row>
@@ -2912,146 +2946,146 @@
       <c r="A41" s="2">
         <v>1997</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="46">
         <v>233.9</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="46">
         <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="A42" s="31">
         <v>1998</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="57">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="46">
         <v>416.5</v>
       </c>
-      <c r="F42" s="57">
+      <c r="F42" s="46">
         <v>458.1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="44">
+      <c r="A43" s="34">
         <v>1999</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="57">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="46">
         <v>414.6</v>
       </c>
-      <c r="F43" s="57">
+      <c r="F43" s="46">
         <v>465.6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
+      <c r="A44" s="34">
         <v>2000</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="57">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="46">
         <v>214</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="46">
         <v>245.4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="44">
+      <c r="A45" s="34">
         <v>2001</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="57">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="46">
         <v>498.6</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="46">
         <v>583.9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="44">
+      <c r="A46" s="34">
         <v>2002</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="46">
         <v>1170.0999999999999</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="46">
         <v>1399.9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="44">
+      <c r="A47" s="34">
         <v>2003</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="46">
         <v>1564.5</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="46">
         <v>1915.7</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
+      <c r="A48" s="34">
         <v>2004</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="46">
         <v>1555.5</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="46">
         <v>1954.2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
+      <c r="A49" s="34">
         <v>2005</v>
       </c>
       <c r="E49">
         <v>1283.3</v>
       </c>
-      <c r="F49" s="57">
+      <c r="F49" s="46">
         <v>1654.2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
+      <c r="A50" s="34">
         <v>2006</v>
       </c>
       <c r="E50">
         <v>778</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="46">
         <v>1028.9000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44">
+      <c r="A51" s="34">
         <v>2007</v>
       </c>
       <c r="E51">
         <v>411.9</v>
       </c>
-      <c r="F51" s="57">
+      <c r="F51" s="46">
         <v>558.9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="58">
+      <c r="A52" s="47">
         <v>2008</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46">
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36">
         <v>91.5</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="48">
         <v>127.4</v>
       </c>
     </row>
@@ -3062,34 +3096,34 @@
       <c r="E53">
         <v>8790.6</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="46">
         <v>10809.3</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3097,10 +3131,10 @@
       <c r="A57" s="2">
         <v>1996</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="40">
         <v>13.3</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="40">
         <v>14</v>
       </c>
     </row>
@@ -3108,146 +3142,146 @@
       <c r="A58" s="2">
         <v>1997</v>
       </c>
-      <c r="E58" s="57">
+      <c r="E58" s="46">
         <v>73.599999999999994</v>
       </c>
-      <c r="F58" s="57">
+      <c r="F58" s="46">
         <v>79.3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="38">
+      <c r="A59" s="31">
         <v>1998</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="57">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="46">
         <v>58.7</v>
       </c>
-      <c r="F59" s="57">
+      <c r="F59" s="46">
         <v>64.599999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="A60" s="34">
         <v>1999</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="57">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="46">
         <v>37</v>
       </c>
-      <c r="F60" s="57">
+      <c r="F60" s="46">
         <v>41.6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="44">
+      <c r="A61" s="34">
         <v>2000</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="57">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="46">
         <v>27</v>
       </c>
-      <c r="F61" s="57">
+      <c r="F61" s="46">
         <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="44">
+      <c r="A62" s="34">
         <v>2001</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="57">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="46">
         <v>59.5</v>
       </c>
-      <c r="F62" s="57">
+      <c r="F62" s="46">
         <v>70.099999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="44">
+      <c r="A63" s="34">
         <v>2002</v>
       </c>
-      <c r="E63" s="57">
+      <c r="E63" s="46">
         <v>140.30000000000001</v>
       </c>
-      <c r="F63" s="57">
+      <c r="F63" s="46">
         <v>167.8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="44">
+      <c r="A64" s="34">
         <v>2003</v>
       </c>
-      <c r="E64" s="57">
+      <c r="E64" s="46">
         <v>186.9</v>
       </c>
-      <c r="F64" s="57">
+      <c r="F64" s="46">
         <v>228.9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="44">
+      <c r="A65" s="34">
         <v>2004</v>
       </c>
-      <c r="E65" s="57">
+      <c r="E65" s="46">
         <v>204.5</v>
       </c>
-      <c r="F65" s="57">
+      <c r="F65" s="46">
         <v>256.89999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="44">
+      <c r="A66" s="34">
         <v>2005</v>
       </c>
       <c r="E66">
         <v>181.1</v>
       </c>
-      <c r="F66" s="57">
+      <c r="F66" s="46">
         <v>233.4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="44">
+      <c r="A67" s="34">
         <v>2006</v>
       </c>
       <c r="E67">
         <v>99.3</v>
       </c>
-      <c r="F67" s="57">
+      <c r="F67" s="46">
         <v>131.30000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="44">
+      <c r="A68" s="34">
         <v>2007</v>
       </c>
       <c r="E68">
         <v>52.5</v>
       </c>
-      <c r="F68" s="57">
+      <c r="F68" s="46">
         <v>71.3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="58">
+      <c r="A69" s="47">
         <v>2008</v>
       </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46">
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36">
         <v>11.7</v>
       </c>
-      <c r="F69" s="59">
+      <c r="F69" s="48">
         <v>16.3</v>
       </c>
     </row>
@@ -3258,7 +3292,7 @@
       <c r="E70">
         <v>1145.8</v>
       </c>
-      <c r="F70" s="57">
+      <c r="F70" s="46">
         <v>1406.5</v>
       </c>
     </row>
@@ -3269,22 +3303,22 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F73" s="62" t="s">
+      <c r="F73" s="51" t="s">
         <v>80</v>
       </c>
     </row>
